--- a/rad_pipeline/week_four_rpe_layout.xlsx
+++ b/rad_pipeline/week_four_rpe_layout.xlsx
@@ -68,16 +68,16 @@
     <t>r08c03</t>
   </si>
   <si>
+    <t>r07c10</t>
+  </si>
+  <si>
     <t>r07c09</t>
   </si>
   <si>
-    <t>r07c11</t>
+    <t>r08c12</t>
   </si>
   <si>
-    <t>r08c10</t>
-  </si>
-  <si>
-    <t>r08c12</t>
+    <t>r08c11</t>
   </si>
   <si>
     <t>r01c04</t>
